--- a/.data/modul.xlsx
+++ b/.data/modul.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kamusku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kamusku\.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEBDC1-64A0-459E-9530-C3ADE210457D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616CBE5C-B723-45C4-80AD-ECF5B5C76C46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="3405" activeTab="1" xr2:uid="{8F7877F6-9C5A-4CF3-BB59-C7BA70A6AA9B}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
